--- a/storage/task_list.xlsx
+++ b/storage/task_list.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chen\Desktop\路径计算\storage\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66444E15-F8AA-4E1B-8A1A-A23A36C493B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="1920" yWindow="696" windowWidth="21120" windowHeight="12264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
   <si>
     <t>托运公司</t>
   </si>
@@ -43,7 +49,7 @@
     <t>id</t>
   </si>
   <si>
-    <t>9</t>
+    <t>20011</t>
   </si>
   <si>
     <t>aa</t>
@@ -58,6 +64,9 @@
     <t>BYL02</t>
   </si>
   <si>
+    <t>B26</t>
+  </si>
+  <si>
     <t>D</t>
   </si>
   <si>
@@ -73,6 +82,9 @@
     <t>A_DF2</t>
   </si>
   <si>
+    <t>B_XB3</t>
+  </si>
+  <si>
     <t>B_DF1</t>
   </si>
   <si>
@@ -85,6 +97,9 @@
     <t>A_XB2</t>
   </si>
   <si>
+    <t>E</t>
+  </si>
+  <si>
     <t>raw</t>
   </si>
   <si>
@@ -106,6 +121,12 @@
     <t>2019-3-1</t>
   </si>
   <si>
+    <t>2018-9-15</t>
+  </si>
+  <si>
+    <t>2018-11-15</t>
+  </si>
+  <si>
     <t>2018-01-09</t>
   </si>
   <si>
@@ -124,18 +145,28 @@
     <t>2019-03-05</t>
   </si>
   <si>
-    <t>333.9</t>
+    <t>2018-09-20</t>
+  </si>
+  <si>
+    <t>2018-11-20</t>
+  </si>
+  <si>
+    <t>276.4</t>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -143,8 +174,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -190,15 +228,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -240,7 +286,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -272,9 +318,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -306,6 +370,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -481,14 +563,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -517,7 +601,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -546,7 +630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -554,25 +638,25 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I3">
-        <v>135.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>135.80000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -580,25 +664,25 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I4">
         <v>95.8</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -606,25 +690,25 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I5">
         <v>62.5</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -632,25 +716,25 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I6">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -658,28 +742,28 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>2300</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I7">
         <v>92.5</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -687,28 +771,28 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3750</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I8">
         <v>1629.2</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -716,28 +800,28 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>4200</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I9">
         <v>1748.8</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -745,57 +829,116 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>4200</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I10">
         <v>1733.8</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>2300</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11">
+        <v>333.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>20010</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>1600</v>
+      </c>
+      <c r="F12" t="s">
         <v>27</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G12" t="s">
         <v>33</v>
       </c>
-      <c r="I11" t="s">
-        <v>36</v>
+      <c r="H12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13">
+        <v>1720</v>
+      </c>
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/storage/task_list.xlsx
+++ b/storage/task_list.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chen\Desktop\路径计算\storage\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66444E15-F8AA-4E1B-8A1A-A23A36C493B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="696" windowWidth="21120" windowHeight="12264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="56">
   <si>
     <t>托运公司</t>
   </si>
@@ -49,7 +43,7 @@
     <t>id</t>
   </si>
   <si>
-    <t>20011</t>
+    <t>20025</t>
   </si>
   <si>
     <t>aa</t>
@@ -67,6 +61,18 @@
     <t>B26</t>
   </si>
   <si>
+    <t>B17</t>
+  </si>
+  <si>
+    <t>B23</t>
+  </si>
+  <si>
+    <t>BYL01</t>
+  </si>
+  <si>
+    <t>BYL03</t>
+  </si>
+  <si>
     <t>D</t>
   </si>
   <si>
@@ -100,6 +106,9 @@
     <t>E</t>
   </si>
   <si>
+    <t>B_O</t>
+  </si>
+  <si>
     <t>raw</t>
   </si>
   <si>
@@ -127,15 +136,18 @@
     <t>2018-11-15</t>
   </si>
   <si>
+    <t>2019-1-6</t>
+  </si>
+  <si>
+    <t>2019-4-1</t>
+  </si>
+  <si>
     <t>2018-01-09</t>
   </si>
   <si>
     <t>2018-10-06</t>
   </si>
   <si>
-    <t>2019-1-6</t>
-  </si>
-  <si>
     <t>2019-01-05</t>
   </si>
   <si>
@@ -151,22 +163,36 @@
     <t>2018-11-20</t>
   </si>
   <si>
-    <t>276.4</t>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>2019-01-11</t>
+  </si>
+  <si>
+    <t>2019-01-03</t>
+  </si>
+  <si>
+    <t>2019-01-09</t>
+  </si>
+  <si>
+    <t>2019-02-09</t>
+  </si>
+  <si>
+    <t>2019-03-09</t>
+  </si>
+  <si>
+    <t>2019-04-09</t>
+  </si>
+  <si>
+    <t>1161.8000000000002</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -174,15 +200,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -228,23 +247,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -286,7 +297,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -318,27 +329,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -370,24 +363,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -563,16 +538,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -601,7 +574,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -630,7 +603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -638,25 +611,25 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="I3">
-        <v>135.80000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>135.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -664,25 +637,25 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="I4">
         <v>95.8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -690,25 +663,25 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="I5">
         <v>62.5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -716,25 +689,25 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="I6">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -742,28 +715,28 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>2300</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I7">
         <v>92.5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -771,28 +744,28 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>3750</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H8" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I8">
         <v>1629.2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -800,28 +773,28 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>4200</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I9">
         <v>1748.8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -829,28 +802,28 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>4200</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I10">
         <v>1733.8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -858,28 +831,28 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E11">
         <v>2300</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H11" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I11">
         <v>333.9</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>20010</v>
       </c>
@@ -887,58 +860,463 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E12">
         <v>1600</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H12" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="I12">
         <v>255</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>9</v>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1">
+        <v>20011</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E13">
         <v>1720</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H13" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" t="s">
-        <v>43</v>
+        <v>48</v>
+      </c>
+      <c r="I13">
+        <v>276.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1">
+        <v>20012</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14">
+        <v>420</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14">
+        <v>60.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1">
+        <v>20013</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15">
+        <v>800</v>
+      </c>
+      <c r="F15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15">
+        <v>135.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1">
+        <v>20014</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16">
+        <v>1260</v>
+      </c>
+      <c r="F16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1">
+        <v>20015</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17">
+        <v>150</v>
+      </c>
+      <c r="F17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17">
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1">
+        <v>20016</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>7200</v>
+      </c>
+      <c r="F18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1">
+        <v>20017</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>7500</v>
+      </c>
+      <c r="F19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19">
+        <v>1094.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1">
+        <v>20018</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20">
+        <v>6165</v>
+      </c>
+      <c r="F20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" t="s">
+        <v>44</v>
+      </c>
+      <c r="I20">
+        <v>1727.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1">
+        <v>20019</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>6165</v>
+      </c>
+      <c r="F21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" t="s">
+        <v>45</v>
+      </c>
+      <c r="I21">
+        <v>1493.700000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1">
+        <v>20020</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>7320</v>
+      </c>
+      <c r="F22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22">
+        <v>1275.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1">
+        <v>20021</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23">
+        <v>1200</v>
+      </c>
+      <c r="F23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I23">
+        <v>105.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1">
+        <v>20022</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24">
+        <v>2400</v>
+      </c>
+      <c r="F24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" t="s">
+        <v>52</v>
+      </c>
+      <c r="I24">
+        <v>180.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1">
+        <v>20023</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2400</v>
+      </c>
+      <c r="F25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" t="s">
+        <v>53</v>
+      </c>
+      <c r="I25">
+        <v>180.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1">
+        <v>20024</v>
+      </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>2400</v>
+      </c>
+      <c r="F26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" t="s">
+        <v>54</v>
+      </c>
+      <c r="I26">
+        <v>210.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27">
+        <v>10350</v>
+      </c>
+      <c r="F27" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27" t="s">
+        <v>53</v>
+      </c>
+      <c r="I27" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/storage/task_list.xlsx
+++ b/storage/task_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="66">
   <si>
     <t>托运公司</t>
   </si>
@@ -43,7 +43,7 @@
     <t>id</t>
   </si>
   <si>
-    <t>20025</t>
+    <t>20034</t>
   </si>
   <si>
     <t>aa</t>
@@ -73,6 +73,9 @@
     <t>BYL03</t>
   </si>
   <si>
+    <t>B27</t>
+  </si>
+  <si>
     <t>D</t>
   </si>
   <si>
@@ -142,6 +145,15 @@
     <t>2019-4-1</t>
   </si>
   <si>
+    <t>2019-6-1</t>
+  </si>
+  <si>
+    <t>2019-5-1</t>
+  </si>
+  <si>
+    <t>2019-2-25</t>
+  </si>
+  <si>
     <t>2018-01-09</t>
   </si>
   <si>
@@ -181,7 +193,25 @@
     <t>2019-04-09</t>
   </si>
   <si>
-    <t>1161.8000000000002</t>
+    <t>2019-02-03</t>
+  </si>
+  <si>
+    <t>2019-01-06</t>
+  </si>
+  <si>
+    <t>2019-04-05</t>
+  </si>
+  <si>
+    <t>2019-06-05</t>
+  </si>
+  <si>
+    <t>2019-05-05</t>
+  </si>
+  <si>
+    <t>2019-03-02</t>
+  </si>
+  <si>
+    <t>47.9</t>
   </si>
 </sst>
 </file>
@@ -539,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -611,19 +641,19 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I3">
         <v>135.8</v>
@@ -637,19 +667,19 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I4">
         <v>95.8</v>
@@ -663,19 +693,19 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I5">
         <v>62.5</v>
@@ -689,19 +719,19 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I6">
         <v>75</v>
@@ -715,22 +745,22 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>2300</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I7">
         <v>92.5</v>
@@ -744,22 +774,22 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>3750</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I8">
         <v>1629.2</v>
@@ -773,22 +803,22 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9">
         <v>4200</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I9">
         <v>1748.8</v>
@@ -802,22 +832,22 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E10">
         <v>4200</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I10">
         <v>1733.8</v>
@@ -831,22 +861,22 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E11">
         <v>2300</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H11" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I11">
         <v>333.9</v>
@@ -860,22 +890,22 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E12">
         <v>1600</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I12">
         <v>255</v>
@@ -889,22 +919,22 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E13">
         <v>1720</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I13">
         <v>276.4</v>
@@ -918,22 +948,22 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>420</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H14" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I14">
         <v>60.4</v>
@@ -947,22 +977,22 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E15">
         <v>800</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H15" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I15">
         <v>135.4</v>
@@ -976,22 +1006,22 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E16">
         <v>1260</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H16" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I16">
         <v>398</v>
@@ -1005,22 +1035,22 @@
         <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E17">
         <v>150</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H17" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I17">
         <v>58.5</v>
@@ -1034,22 +1064,22 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>7200</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H18" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I18">
         <v>600</v>
@@ -1063,22 +1093,22 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>7500</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H19" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I19">
         <v>1094.5</v>
@@ -1092,22 +1122,22 @@
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E20">
         <v>6165</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H20" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I20">
         <v>1727.9</v>
@@ -1121,22 +1151,22 @@
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E21">
         <v>6165</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H21" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I21">
         <v>1493.700000000001</v>
@@ -1150,22 +1180,22 @@
         <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>7320</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I22">
         <v>1275.4</v>
@@ -1179,22 +1209,22 @@
         <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E23">
         <v>1200</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H23" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I23">
         <v>105.4</v>
@@ -1208,22 +1238,22 @@
         <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E24">
         <v>2400</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H24" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I24">
         <v>180.4</v>
@@ -1237,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E25">
         <v>2400</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H25" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I25">
         <v>180.4</v>
@@ -1266,54 +1296,315 @@
         <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E26">
         <v>2400</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H26" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I26">
         <v>210.8</v>
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="1" t="s">
-        <v>9</v>
+      <c r="A27" s="1">
+        <v>20025</v>
       </c>
       <c r="B27" t="s">
         <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E27">
         <v>10350</v>
       </c>
       <c r="F27" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H27" t="s">
+        <v>57</v>
+      </c>
+      <c r="I27">
+        <v>1161.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1">
+        <v>20026</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" t="s">
         <v>31</v>
       </c>
-      <c r="G27" t="s">
+      <c r="E28">
+        <v>601</v>
+      </c>
+      <c r="F28" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" t="s">
+        <v>36</v>
+      </c>
+      <c r="H28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1">
+        <v>20027</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29">
+        <v>750</v>
+      </c>
+      <c r="F29" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" t="s">
+        <v>36</v>
+      </c>
+      <c r="H29" t="s">
+        <v>54</v>
+      </c>
+      <c r="I29">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1">
+        <v>20028</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30">
+        <v>677</v>
+      </c>
+      <c r="F30" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30" t="s">
         <v>37</v>
       </c>
-      <c r="H27" t="s">
-        <v>53</v>
-      </c>
-      <c r="I27" t="s">
-        <v>55</v>
+      <c r="H30" t="s">
+        <v>59</v>
+      </c>
+      <c r="I30">
+        <v>70.40000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="1">
+        <v>20029</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31">
+        <v>1133</v>
+      </c>
+      <c r="F31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31" t="s">
+        <v>36</v>
+      </c>
+      <c r="H31" t="s">
+        <v>60</v>
+      </c>
+      <c r="I31">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="1">
+        <v>20030</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32">
+        <v>160</v>
+      </c>
+      <c r="F32" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" t="s">
+        <v>36</v>
+      </c>
+      <c r="H32" t="s">
+        <v>60</v>
+      </c>
+      <c r="I32">
+        <v>47.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="1">
+        <v>20031</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33">
+        <v>6450</v>
+      </c>
+      <c r="F33" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33" t="s">
+        <v>42</v>
+      </c>
+      <c r="H33" t="s">
+        <v>61</v>
+      </c>
+      <c r="I33">
+        <v>2694.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="1">
+        <v>20032</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34">
+        <v>6450</v>
+      </c>
+      <c r="F34" t="s">
+        <v>32</v>
+      </c>
+      <c r="G34" t="s">
+        <v>43</v>
+      </c>
+      <c r="H34" t="s">
+        <v>62</v>
+      </c>
+      <c r="I34">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="1">
+        <v>20033</v>
+      </c>
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35">
+        <v>6450</v>
+      </c>
+      <c r="F35" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" t="s">
+        <v>44</v>
+      </c>
+      <c r="H35" t="s">
+        <v>63</v>
+      </c>
+      <c r="I35">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36">
+        <v>352</v>
+      </c>
+      <c r="F36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>64</v>
+      </c>
+      <c r="I36" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/storage/task_list.xlsx
+++ b/storage/task_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="103">
   <si>
     <t>托运公司</t>
   </si>
@@ -43,7 +43,7 @@
     <t>id</t>
   </si>
   <si>
-    <t>20034</t>
+    <t>20069</t>
   </si>
   <si>
     <t>aa</t>
@@ -76,6 +76,9 @@
     <t>B27</t>
   </si>
   <si>
+    <t>B11</t>
+  </si>
+  <si>
     <t>D</t>
   </si>
   <si>
@@ -154,6 +157,54 @@
     <t>2019-2-25</t>
   </si>
   <si>
+    <t>2019-4-26</t>
+  </si>
+  <si>
+    <t>2019-4-7</t>
+  </si>
+  <si>
+    <t>2019-3-15</t>
+  </si>
+  <si>
+    <t>2019-4-10</t>
+  </si>
+  <si>
+    <t>2019-5-10</t>
+  </si>
+  <si>
+    <t>2019-6-10</t>
+  </si>
+  <si>
+    <t>2019-7-10</t>
+  </si>
+  <si>
+    <t>2019-7-1</t>
+  </si>
+  <si>
+    <t>2019-7-6</t>
+  </si>
+  <si>
+    <t>2019-7-12</t>
+  </si>
+  <si>
+    <t>2019-8-1</t>
+  </si>
+  <si>
+    <t>2019-6-15</t>
+  </si>
+  <si>
+    <t>2019-7-23</t>
+  </si>
+  <si>
+    <t>2019-8-23</t>
+  </si>
+  <si>
+    <t>2019-9-23</t>
+  </si>
+  <si>
+    <t>2019-10-23</t>
+  </si>
+  <si>
     <t>2018-01-09</t>
   </si>
   <si>
@@ -211,7 +262,67 @@
     <t>2019-03-02</t>
   </si>
   <si>
-    <t>47.9</t>
+    <t>2019-4-3</t>
+  </si>
+  <si>
+    <t>2019-05-06</t>
+  </si>
+  <si>
+    <t>2019-04-28</t>
+  </si>
+  <si>
+    <t>2019-04-12</t>
+  </si>
+  <si>
+    <t>2019-03-20</t>
+  </si>
+  <si>
+    <t>2019-06-03</t>
+  </si>
+  <si>
+    <t>2019-05-09</t>
+  </si>
+  <si>
+    <t>2019-06-09</t>
+  </si>
+  <si>
+    <t>2019-05-12</t>
+  </si>
+  <si>
+    <t>2019-06-12</t>
+  </si>
+  <si>
+    <t>2019-07-12</t>
+  </si>
+  <si>
+    <t>2019-07-06</t>
+  </si>
+  <si>
+    <t>2019-07-11</t>
+  </si>
+  <si>
+    <t>2019-07-17</t>
+  </si>
+  <si>
+    <t>2019-08-06</t>
+  </si>
+  <si>
+    <t>2019-06-20</t>
+  </si>
+  <si>
+    <t>2019-07-25</t>
+  </si>
+  <si>
+    <t>2019-08-25</t>
+  </si>
+  <si>
+    <t>2019-09-25</t>
+  </si>
+  <si>
+    <t>2019-10-25</t>
+  </si>
+  <si>
+    <t>394.4</t>
   </si>
 </sst>
 </file>
@@ -569,7 +680,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -641,19 +752,19 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="I3">
         <v>135.8</v>
@@ -667,19 +778,19 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="I4">
         <v>95.8</v>
@@ -693,19 +804,19 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="I5">
         <v>62.5</v>
@@ -719,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="I6">
         <v>75</v>
@@ -745,22 +856,22 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>2300</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I7">
         <v>92.5</v>
@@ -774,22 +885,22 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E8">
         <v>3750</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="I8">
         <v>1629.2</v>
@@ -803,22 +914,22 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E9">
         <v>4200</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H9" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="I9">
         <v>1748.8</v>
@@ -832,22 +943,22 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E10">
         <v>4200</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I10">
         <v>1733.8</v>
@@ -861,22 +972,22 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E11">
         <v>2300</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="I11">
         <v>333.9</v>
@@ -890,22 +1001,22 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E12">
         <v>1600</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H12" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="I12">
         <v>255</v>
@@ -919,22 +1030,22 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E13">
         <v>1720</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H13" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="I13">
         <v>276.4</v>
@@ -948,22 +1059,22 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>420</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H14" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="I14">
         <v>60.4</v>
@@ -977,22 +1088,22 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E15">
         <v>800</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H15" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="I15">
         <v>135.4</v>
@@ -1006,22 +1117,22 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E16">
         <v>1260</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="I16">
         <v>398</v>
@@ -1035,22 +1146,22 @@
         <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E17">
         <v>150</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="I17">
         <v>58.5</v>
@@ -1064,22 +1175,22 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>7200</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H18" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="I18">
         <v>600</v>
@@ -1093,22 +1204,22 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>7500</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H19" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="I19">
         <v>1094.5</v>
@@ -1122,22 +1233,22 @@
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>6165</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="I20">
         <v>1727.9</v>
@@ -1151,22 +1262,22 @@
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E21">
         <v>6165</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H21" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="I21">
         <v>1493.700000000001</v>
@@ -1180,22 +1291,22 @@
         <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E22">
         <v>7320</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H22" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I22">
         <v>1275.4</v>
@@ -1209,22 +1320,22 @@
         <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E23">
         <v>1200</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H23" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="I23">
         <v>105.4</v>
@@ -1238,22 +1349,22 @@
         <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E24">
         <v>2400</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H24" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="I24">
         <v>180.4</v>
@@ -1267,22 +1378,22 @@
         <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E25">
         <v>2400</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H25" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="I25">
         <v>180.4</v>
@@ -1296,22 +1407,22 @@
         <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E26">
         <v>2400</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H26" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="I26">
         <v>210.8</v>
@@ -1325,22 +1436,22 @@
         <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E27">
         <v>10350</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H27" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="I27">
         <v>1161.8</v>
@@ -1354,22 +1465,22 @@
         <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E28">
         <v>601</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H28" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="I28">
         <v>100</v>
@@ -1383,22 +1494,22 @@
         <v>19</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E29">
         <v>750</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H29" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="I29">
         <v>60</v>
@@ -1412,22 +1523,22 @@
         <v>19</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E30">
         <v>677</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H30" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="I30">
         <v>70.40000000000001</v>
@@ -1441,22 +1552,22 @@
         <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E31">
         <v>1133</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H31" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="I31">
         <v>163</v>
@@ -1470,22 +1581,22 @@
         <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E32">
         <v>160</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H32" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="I32">
         <v>47.9</v>
@@ -1499,22 +1610,22 @@
         <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E33">
         <v>6450</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H33" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="I33">
         <v>2694.5</v>
@@ -1528,22 +1639,22 @@
         <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D34" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E34">
         <v>6450</v>
       </c>
       <c r="F34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H34" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="I34">
         <v>2367</v>
@@ -1557,54 +1668,1069 @@
         <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E35">
         <v>6450</v>
       </c>
       <c r="F35" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H35" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="I35">
         <v>2367</v>
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="1" t="s">
-        <v>9</v>
+      <c r="A36" s="1">
+        <v>20034</v>
       </c>
       <c r="B36" t="s">
         <v>19</v>
       </c>
       <c r="C36" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D36" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E36">
         <v>352</v>
       </c>
       <c r="F36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>81</v>
+      </c>
+      <c r="I36">
+        <v>47.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="1">
+        <v>20035</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37">
+        <v>578</v>
+      </c>
+      <c r="F37" t="s">
+        <v>34</v>
+      </c>
+      <c r="G37" t="s">
+        <v>37</v>
+      </c>
+      <c r="H37" t="s">
+        <v>71</v>
+      </c>
+      <c r="I37">
+        <v>140.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="1">
+        <v>20036</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38">
+        <v>520</v>
+      </c>
+      <c r="F38" t="s">
+        <v>34</v>
+      </c>
+      <c r="G38" t="s">
+        <v>37</v>
+      </c>
+      <c r="H38" t="s">
+        <v>77</v>
+      </c>
+      <c r="I38">
+        <v>110.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="1">
+        <v>20037</v>
+      </c>
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39">
+        <v>1900</v>
+      </c>
+      <c r="F39" t="s">
+        <v>34</v>
+      </c>
+      <c r="G39" t="s">
+        <v>43</v>
+      </c>
+      <c r="H39" t="s">
+        <v>82</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="1">
+        <v>20038</v>
+      </c>
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40">
+        <v>653</v>
+      </c>
+      <c r="F40" t="s">
+        <v>34</v>
+      </c>
+      <c r="G40" t="s">
         <v>45</v>
       </c>
-      <c r="H36" t="s">
-        <v>64</v>
-      </c>
-      <c r="I36" t="s">
-        <v>65</v>
+      <c r="H40" t="s">
+        <v>83</v>
+      </c>
+      <c r="I40">
+        <v>100.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="1">
+        <v>20039</v>
+      </c>
+      <c r="B41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41">
+        <v>680</v>
+      </c>
+      <c r="F41" t="s">
+        <v>34</v>
+      </c>
+      <c r="G41" t="s">
+        <v>47</v>
+      </c>
+      <c r="H41" t="s">
+        <v>84</v>
+      </c>
+      <c r="I41">
+        <v>150.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="1">
+        <v>20040</v>
+      </c>
+      <c r="B42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42">
+        <v>1075</v>
+      </c>
+      <c r="F42" t="s">
+        <v>34</v>
+      </c>
+      <c r="G42" t="s">
+        <v>48</v>
+      </c>
+      <c r="H42" t="s">
+        <v>85</v>
+      </c>
+      <c r="I42">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="1">
+        <v>20041</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43">
+        <v>4120</v>
+      </c>
+      <c r="F43" t="s">
+        <v>34</v>
+      </c>
+      <c r="G43" t="s">
+        <v>49</v>
+      </c>
+      <c r="H43" t="s">
+        <v>86</v>
+      </c>
+      <c r="I43">
+        <v>688.8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="1">
+        <v>20042</v>
+      </c>
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44">
+        <v>1346</v>
+      </c>
+      <c r="F44" t="s">
+        <v>34</v>
+      </c>
+      <c r="G44" t="s">
+        <v>44</v>
+      </c>
+      <c r="H44" t="s">
+        <v>87</v>
+      </c>
+      <c r="I44">
+        <v>100.9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="1">
+        <v>20043</v>
+      </c>
+      <c r="B45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" t="s">
+        <v>31</v>
+      </c>
+      <c r="E45">
+        <v>4338</v>
+      </c>
+      <c r="F45" t="s">
+        <v>34</v>
+      </c>
+      <c r="G45" t="s">
+        <v>49</v>
+      </c>
+      <c r="H45" t="s">
+        <v>86</v>
+      </c>
+      <c r="I45">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="1">
+        <v>20044</v>
+      </c>
+      <c r="B46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46">
+        <v>4500</v>
+      </c>
+      <c r="F46" t="s">
+        <v>33</v>
+      </c>
+      <c r="G46" t="s">
+        <v>43</v>
+      </c>
+      <c r="H46" t="s">
+        <v>75</v>
+      </c>
+      <c r="I46">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="1">
+        <v>20045</v>
+      </c>
+      <c r="B47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47">
+        <v>4500</v>
+      </c>
+      <c r="F47" t="s">
+        <v>33</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>88</v>
+      </c>
+      <c r="I47">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="1">
+        <v>20046</v>
+      </c>
+      <c r="B48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48">
+        <v>2400</v>
+      </c>
+      <c r="F48" t="s">
+        <v>33</v>
+      </c>
+      <c r="G48" t="s">
+        <v>44</v>
+      </c>
+      <c r="H48" t="s">
+        <v>89</v>
+      </c>
+      <c r="I48">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="1">
+        <v>20047</v>
+      </c>
+      <c r="B49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49">
+        <v>7980</v>
+      </c>
+      <c r="F49" t="s">
+        <v>33</v>
+      </c>
+      <c r="G49" t="s">
+        <v>43</v>
+      </c>
+      <c r="H49" t="s">
+        <v>75</v>
+      </c>
+      <c r="I49">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="1">
+        <v>20048</v>
+      </c>
+      <c r="B50" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50">
+        <v>7980</v>
+      </c>
+      <c r="F50" t="s">
+        <v>33</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>88</v>
+      </c>
+      <c r="I50">
+        <v>1445.4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="1">
+        <v>20049</v>
+      </c>
+      <c r="B51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" t="s">
+        <v>23</v>
+      </c>
+      <c r="E51">
+        <v>5040</v>
+      </c>
+      <c r="F51" t="s">
+        <v>33</v>
+      </c>
+      <c r="G51" t="s">
+        <v>44</v>
+      </c>
+      <c r="H51" t="s">
+        <v>89</v>
+      </c>
+      <c r="I51">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="1">
+        <v>20050</v>
+      </c>
+      <c r="B52" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" t="s">
+        <v>24</v>
+      </c>
+      <c r="E52">
+        <v>8100</v>
+      </c>
+      <c r="F52" t="s">
+        <v>33</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>80</v>
+      </c>
+      <c r="I52">
+        <v>401.2000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="1">
+        <v>20051</v>
+      </c>
+      <c r="B53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" t="s">
+        <v>24</v>
+      </c>
+      <c r="E53">
+        <v>9000</v>
+      </c>
+      <c r="F53" t="s">
+        <v>33</v>
+      </c>
+      <c r="G53" t="s">
+        <v>44</v>
+      </c>
+      <c r="H53" t="s">
+        <v>79</v>
+      </c>
+      <c r="I53">
+        <v>415.8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="1">
+        <v>20052</v>
+      </c>
+      <c r="B54" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54" t="s">
+        <v>27</v>
+      </c>
+      <c r="E54">
+        <v>1200</v>
+      </c>
+      <c r="F54" t="s">
+        <v>33</v>
+      </c>
+      <c r="G54" t="s">
+        <v>50</v>
+      </c>
+      <c r="H54" t="s">
+        <v>85</v>
+      </c>
+      <c r="I54">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="1">
+        <v>20053</v>
+      </c>
+      <c r="B55" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55" t="s">
+        <v>27</v>
+      </c>
+      <c r="E55">
+        <v>3600</v>
+      </c>
+      <c r="F55" t="s">
+        <v>33</v>
+      </c>
+      <c r="G55" t="s">
+        <v>51</v>
+      </c>
+      <c r="H55" t="s">
+        <v>90</v>
+      </c>
+      <c r="I55">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="1">
+        <v>20054</v>
+      </c>
+      <c r="B56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56" t="s">
+        <v>27</v>
+      </c>
+      <c r="E56">
+        <v>3600</v>
+      </c>
+      <c r="F56" t="s">
+        <v>33</v>
+      </c>
+      <c r="G56" t="s">
+        <v>52</v>
+      </c>
+      <c r="H56" t="s">
+        <v>91</v>
+      </c>
+      <c r="I56">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="1">
+        <v>20055</v>
+      </c>
+      <c r="B57" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" t="s">
+        <v>23</v>
+      </c>
+      <c r="D57" t="s">
+        <v>27</v>
+      </c>
+      <c r="E57">
+        <v>2400</v>
+      </c>
+      <c r="F57" t="s">
+        <v>33</v>
+      </c>
+      <c r="G57" t="s">
+        <v>53</v>
+      </c>
+      <c r="H57" t="s">
+        <v>92</v>
+      </c>
+      <c r="I57">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="1">
+        <v>20056</v>
+      </c>
+      <c r="B58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58" t="s">
+        <v>27</v>
+      </c>
+      <c r="E58">
+        <v>10350</v>
+      </c>
+      <c r="F58" t="s">
+        <v>33</v>
+      </c>
+      <c r="G58" t="s">
+        <v>51</v>
+      </c>
+      <c r="H58" t="s">
+        <v>90</v>
+      </c>
+      <c r="I58">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="1">
+        <v>20057</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" t="s">
+        <v>24</v>
+      </c>
+      <c r="D59" t="s">
+        <v>31</v>
+      </c>
+      <c r="E59">
+        <v>1474</v>
+      </c>
+      <c r="F59" t="s">
+        <v>34</v>
+      </c>
+      <c r="G59" t="s">
+        <v>54</v>
+      </c>
+      <c r="H59" t="s">
+        <v>93</v>
+      </c>
+      <c r="I59">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="1">
+        <v>20058</v>
+      </c>
+      <c r="B60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" t="s">
+        <v>27</v>
+      </c>
+      <c r="D60" t="s">
+        <v>21</v>
+      </c>
+      <c r="E60">
+        <v>817</v>
+      </c>
+      <c r="F60" t="s">
+        <v>34</v>
+      </c>
+      <c r="G60" t="s">
+        <v>55</v>
+      </c>
+      <c r="H60" t="s">
+        <v>94</v>
+      </c>
+      <c r="I60">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="1">
+        <v>20059</v>
+      </c>
+      <c r="B61" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61" t="s">
+        <v>21</v>
+      </c>
+      <c r="E61">
+        <v>1887</v>
+      </c>
+      <c r="F61" t="s">
+        <v>34</v>
+      </c>
+      <c r="G61" t="s">
+        <v>54</v>
+      </c>
+      <c r="H61" t="s">
+        <v>93</v>
+      </c>
+      <c r="I61">
+        <v>346.7999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="1">
+        <v>20060</v>
+      </c>
+      <c r="B62" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" t="s">
+        <v>23</v>
+      </c>
+      <c r="D62" t="s">
+        <v>26</v>
+      </c>
+      <c r="E62">
+        <v>1700</v>
+      </c>
+      <c r="F62" t="s">
+        <v>34</v>
+      </c>
+      <c r="G62" t="s">
+        <v>44</v>
+      </c>
+      <c r="H62" t="s">
+        <v>79</v>
+      </c>
+      <c r="I62">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="1">
+        <v>20061</v>
+      </c>
+      <c r="B63" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63" t="s">
+        <v>27</v>
+      </c>
+      <c r="D63" t="s">
+        <v>21</v>
+      </c>
+      <c r="E63">
+        <v>2038</v>
+      </c>
+      <c r="F63" t="s">
+        <v>34</v>
+      </c>
+      <c r="G63" t="s">
+        <v>56</v>
+      </c>
+      <c r="H63" t="s">
+        <v>95</v>
+      </c>
+      <c r="I63">
+        <v>172.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="1">
+        <v>20062</v>
+      </c>
+      <c r="B64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" t="s">
+        <v>24</v>
+      </c>
+      <c r="D64" t="s">
+        <v>31</v>
+      </c>
+      <c r="E64">
+        <v>463</v>
+      </c>
+      <c r="F64" t="s">
+        <v>34</v>
+      </c>
+      <c r="G64" t="s">
+        <v>57</v>
+      </c>
+      <c r="H64" t="s">
+        <v>96</v>
+      </c>
+      <c r="I64">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="1">
+        <v>20063</v>
+      </c>
+      <c r="B65" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" t="s">
+        <v>26</v>
+      </c>
+      <c r="D65" t="s">
+        <v>31</v>
+      </c>
+      <c r="E65">
+        <v>1337</v>
+      </c>
+      <c r="F65" t="s">
+        <v>34</v>
+      </c>
+      <c r="G65" t="s">
+        <v>58</v>
+      </c>
+      <c r="H65" t="s">
+        <v>97</v>
+      </c>
+      <c r="I65">
+        <v>288.8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="1">
+        <v>20064</v>
+      </c>
+      <c r="B66" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" t="s">
+        <v>26</v>
+      </c>
+      <c r="D66" t="s">
+        <v>21</v>
+      </c>
+      <c r="E66">
+        <v>1227</v>
+      </c>
+      <c r="F66" t="s">
+        <v>34</v>
+      </c>
+      <c r="G66" t="s">
+        <v>58</v>
+      </c>
+      <c r="H66" t="s">
+        <v>97</v>
+      </c>
+      <c r="I66">
+        <v>216.4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="1">
+        <v>20065</v>
+      </c>
+      <c r="B67" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67" t="s">
+        <v>24</v>
+      </c>
+      <c r="D67" t="s">
+        <v>27</v>
+      </c>
+      <c r="E67">
+        <v>1200</v>
+      </c>
+      <c r="F67" t="s">
+        <v>33</v>
+      </c>
+      <c r="G67" t="s">
+        <v>59</v>
+      </c>
+      <c r="H67" t="s">
+        <v>98</v>
+      </c>
+      <c r="I67">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="1">
+        <v>20066</v>
+      </c>
+      <c r="B68" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" t="s">
+        <v>24</v>
+      </c>
+      <c r="D68" t="s">
+        <v>27</v>
+      </c>
+      <c r="E68">
+        <v>3600</v>
+      </c>
+      <c r="F68" t="s">
+        <v>33</v>
+      </c>
+      <c r="G68" t="s">
+        <v>60</v>
+      </c>
+      <c r="H68" t="s">
+        <v>99</v>
+      </c>
+      <c r="I68">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="1">
+        <v>20067</v>
+      </c>
+      <c r="B69" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69" t="s">
+        <v>24</v>
+      </c>
+      <c r="D69" t="s">
+        <v>27</v>
+      </c>
+      <c r="E69">
+        <v>3600</v>
+      </c>
+      <c r="F69" t="s">
+        <v>33</v>
+      </c>
+      <c r="G69" t="s">
+        <v>61</v>
+      </c>
+      <c r="H69" t="s">
+        <v>100</v>
+      </c>
+      <c r="I69">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="1">
+        <v>20068</v>
+      </c>
+      <c r="B70" t="s">
+        <v>18</v>
+      </c>
+      <c r="C70" t="s">
+        <v>24</v>
+      </c>
+      <c r="D70" t="s">
+        <v>27</v>
+      </c>
+      <c r="E70">
+        <v>2400</v>
+      </c>
+      <c r="F70" t="s">
+        <v>33</v>
+      </c>
+      <c r="G70" t="s">
+        <v>62</v>
+      </c>
+      <c r="H70" t="s">
+        <v>101</v>
+      </c>
+      <c r="I70">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71" t="s">
+        <v>18</v>
+      </c>
+      <c r="C71" t="s">
+        <v>24</v>
+      </c>
+      <c r="D71" t="s">
+        <v>27</v>
+      </c>
+      <c r="E71">
+        <v>10350</v>
+      </c>
+      <c r="F71" t="s">
+        <v>33</v>
+      </c>
+      <c r="G71" t="s">
+        <v>60</v>
+      </c>
+      <c r="H71" t="s">
+        <v>99</v>
+      </c>
+      <c r="I71" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/storage/task_list.xlsx
+++ b/storage/task_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="141">
   <si>
     <t>托运公司</t>
   </si>
@@ -43,7 +43,7 @@
     <t>id</t>
   </si>
   <si>
-    <t>20069</t>
+    <t>20102</t>
   </si>
   <si>
     <t>aa</t>
@@ -205,6 +205,57 @@
     <t>2019-10-23</t>
   </si>
   <si>
+    <t>2019-7-21</t>
+  </si>
+  <si>
+    <t>2019-8-21</t>
+  </si>
+  <si>
+    <t>2019-7-16</t>
+  </si>
+  <si>
+    <t>2019-8-16</t>
+  </si>
+  <si>
+    <t>2019-9-1</t>
+  </si>
+  <si>
+    <t>2019-10-1</t>
+  </si>
+  <si>
+    <t>2019-9-15</t>
+  </si>
+  <si>
+    <t>2019-8-17</t>
+  </si>
+  <si>
+    <t>2019-10-15</t>
+  </si>
+  <si>
+    <t>2019-10-6</t>
+  </si>
+  <si>
+    <t>2019-10-12</t>
+  </si>
+  <si>
+    <t>2019-11-7</t>
+  </si>
+  <si>
+    <t>2019-8-7</t>
+  </si>
+  <si>
+    <t>2019-5-23</t>
+  </si>
+  <si>
+    <t>2019-10-27</t>
+  </si>
+  <si>
+    <t>2019-11-13</t>
+  </si>
+  <si>
+    <t>2019-11-1</t>
+  </si>
+  <si>
     <t>2018-01-09</t>
   </si>
   <si>
@@ -322,7 +373,70 @@
     <t>2019-10-25</t>
   </si>
   <si>
-    <t>394.4</t>
+    <t>2019-07-29</t>
+  </si>
+  <si>
+    <t>2019-08-29</t>
+  </si>
+  <si>
+    <t>2019-07-24</t>
+  </si>
+  <si>
+    <t>2019-08-24</t>
+  </si>
+  <si>
+    <t>2019-09-09</t>
+  </si>
+  <si>
+    <t>2019-07-09</t>
+  </si>
+  <si>
+    <t>2019-08-09</t>
+  </si>
+  <si>
+    <t>2019-10-03</t>
+  </si>
+  <si>
+    <t>2019-09-20</t>
+  </si>
+  <si>
+    <t>2019-10-06</t>
+  </si>
+  <si>
+    <t>2019-07-03</t>
+  </si>
+  <si>
+    <t>2019-08-22</t>
+  </si>
+  <si>
+    <t>2019-10-20</t>
+  </si>
+  <si>
+    <t>2019-10-11</t>
+  </si>
+  <si>
+    <t>2019-10-28</t>
+  </si>
+  <si>
+    <t>2019-10-14</t>
+  </si>
+  <si>
+    <t>2019-11-09</t>
+  </si>
+  <si>
+    <t>2019-05-25</t>
+  </si>
+  <si>
+    <t>2019-11-01</t>
+  </si>
+  <si>
+    <t>2019-11-18</t>
+  </si>
+  <si>
+    <t>2019-10-09</t>
+  </si>
+  <si>
+    <t>300.0</t>
   </si>
 </sst>
 </file>
@@ -680,7 +794,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -764,7 +878,7 @@
         <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="I3">
         <v>135.8</v>
@@ -790,7 +904,7 @@
         <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="I4">
         <v>95.8</v>
@@ -816,7 +930,7 @@
         <v>36</v>
       </c>
       <c r="H5" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="I5">
         <v>62.5</v>
@@ -842,7 +956,7 @@
         <v>36</v>
       </c>
       <c r="H6" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="I6">
         <v>75</v>
@@ -900,7 +1014,7 @@
         <v>37</v>
       </c>
       <c r="H8" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="I8">
         <v>1629.2</v>
@@ -929,7 +1043,7 @@
         <v>38</v>
       </c>
       <c r="H9" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="I9">
         <v>1748.8</v>
@@ -958,7 +1072,7 @@
         <v>39</v>
       </c>
       <c r="H10" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="I10">
         <v>1733.8</v>
@@ -987,7 +1101,7 @@
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="I11">
         <v>333.9</v>
@@ -1016,7 +1130,7 @@
         <v>40</v>
       </c>
       <c r="H12" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="I12">
         <v>255</v>
@@ -1045,7 +1159,7 @@
         <v>41</v>
       </c>
       <c r="H13" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="I13">
         <v>276.4</v>
@@ -1074,7 +1188,7 @@
         <v>42</v>
       </c>
       <c r="H14" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="I14">
         <v>60.4</v>
@@ -1103,7 +1217,7 @@
         <v>37</v>
       </c>
       <c r="H15" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="I15">
         <v>135.4</v>
@@ -1132,7 +1246,7 @@
         <v>37</v>
       </c>
       <c r="H16" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="I16">
         <v>398</v>
@@ -1161,7 +1275,7 @@
         <v>37</v>
       </c>
       <c r="H17" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="I17">
         <v>58.5</v>
@@ -1190,7 +1304,7 @@
         <v>37</v>
       </c>
       <c r="H18" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="I18">
         <v>600</v>
@@ -1219,7 +1333,7 @@
         <v>38</v>
       </c>
       <c r="H19" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="I19">
         <v>1094.5</v>
@@ -1248,7 +1362,7 @@
         <v>37</v>
       </c>
       <c r="H20" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="I20">
         <v>1727.9</v>
@@ -1277,7 +1391,7 @@
         <v>38</v>
       </c>
       <c r="H21" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="I21">
         <v>1493.700000000001</v>
@@ -1306,7 +1420,7 @@
         <v>39</v>
       </c>
       <c r="H22" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="I22">
         <v>1275.4</v>
@@ -1335,7 +1449,7 @@
         <v>37</v>
       </c>
       <c r="H23" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="I23">
         <v>105.4</v>
@@ -1364,7 +1478,7 @@
         <v>38</v>
       </c>
       <c r="H24" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="I24">
         <v>180.4</v>
@@ -1393,7 +1507,7 @@
         <v>39</v>
       </c>
       <c r="H25" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="I25">
         <v>180.4</v>
@@ -1422,7 +1536,7 @@
         <v>43</v>
       </c>
       <c r="H26" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="I26">
         <v>210.8</v>
@@ -1451,7 +1565,7 @@
         <v>39</v>
       </c>
       <c r="H27" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="I27">
         <v>1161.8</v>
@@ -1480,7 +1594,7 @@
         <v>37</v>
       </c>
       <c r="H28" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="I28">
         <v>100</v>
@@ -1509,7 +1623,7 @@
         <v>37</v>
       </c>
       <c r="H29" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="I29">
         <v>60</v>
@@ -1538,7 +1652,7 @@
         <v>38</v>
       </c>
       <c r="H30" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="I30">
         <v>70.40000000000001</v>
@@ -1567,7 +1681,7 @@
         <v>37</v>
       </c>
       <c r="H31" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="I31">
         <v>163</v>
@@ -1596,7 +1710,7 @@
         <v>37</v>
       </c>
       <c r="H32" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="I32">
         <v>47.9</v>
@@ -1625,7 +1739,7 @@
         <v>43</v>
       </c>
       <c r="H33" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="I33">
         <v>2694.5</v>
@@ -1654,7 +1768,7 @@
         <v>44</v>
       </c>
       <c r="H34" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="I34">
         <v>2367</v>
@@ -1683,7 +1797,7 @@
         <v>45</v>
       </c>
       <c r="H35" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="I35">
         <v>2367</v>
@@ -1712,7 +1826,7 @@
         <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="I36">
         <v>47.9</v>
@@ -1741,7 +1855,7 @@
         <v>37</v>
       </c>
       <c r="H37" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="I37">
         <v>140.8</v>
@@ -1770,7 +1884,7 @@
         <v>37</v>
       </c>
       <c r="H38" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="I38">
         <v>110.5</v>
@@ -1799,7 +1913,7 @@
         <v>43</v>
       </c>
       <c r="H39" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -1828,7 +1942,7 @@
         <v>45</v>
       </c>
       <c r="H40" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="I40">
         <v>100.8</v>
@@ -1857,7 +1971,7 @@
         <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="I41">
         <v>150.4</v>
@@ -1886,7 +2000,7 @@
         <v>48</v>
       </c>
       <c r="H42" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="I42">
         <v>276</v>
@@ -1915,7 +2029,7 @@
         <v>49</v>
       </c>
       <c r="H43" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="I43">
         <v>688.8</v>
@@ -1944,7 +2058,7 @@
         <v>44</v>
       </c>
       <c r="H44" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="I44">
         <v>100.9</v>
@@ -1973,7 +2087,7 @@
         <v>49</v>
       </c>
       <c r="H45" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="I45">
         <v>1060</v>
@@ -2002,7 +2116,7 @@
         <v>43</v>
       </c>
       <c r="H46" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="I46">
         <v>380</v>
@@ -2031,7 +2145,7 @@
         <v>45</v>
       </c>
       <c r="H47" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="I47">
         <v>380</v>
@@ -2060,7 +2174,7 @@
         <v>44</v>
       </c>
       <c r="H48" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="I48">
         <v>200</v>
@@ -2089,7 +2203,7 @@
         <v>43</v>
       </c>
       <c r="H49" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="I49">
         <v>1229</v>
@@ -2118,7 +2232,7 @@
         <v>45</v>
       </c>
       <c r="H50" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="I50">
         <v>1445.4</v>
@@ -2147,7 +2261,7 @@
         <v>44</v>
       </c>
       <c r="H51" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="I51">
         <v>966</v>
@@ -2176,7 +2290,7 @@
         <v>45</v>
       </c>
       <c r="H52" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="I52">
         <v>401.2000000000001</v>
@@ -2205,7 +2319,7 @@
         <v>44</v>
       </c>
       <c r="H53" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="I53">
         <v>415.8</v>
@@ -2234,7 +2348,7 @@
         <v>50</v>
       </c>
       <c r="H54" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="I54">
         <v>50</v>
@@ -2263,7 +2377,7 @@
         <v>51</v>
       </c>
       <c r="H55" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="I55">
         <v>150</v>
@@ -2292,7 +2406,7 @@
         <v>52</v>
       </c>
       <c r="H56" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="I56">
         <v>150</v>
@@ -2321,7 +2435,7 @@
         <v>53</v>
       </c>
       <c r="H57" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="I57">
         <v>100</v>
@@ -2350,7 +2464,7 @@
         <v>51</v>
       </c>
       <c r="H58" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="I58">
         <v>685</v>
@@ -2379,7 +2493,7 @@
         <v>54</v>
       </c>
       <c r="H59" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="I59">
         <v>196</v>
@@ -2408,7 +2522,7 @@
         <v>55</v>
       </c>
       <c r="H60" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="I60">
         <v>75</v>
@@ -2437,7 +2551,7 @@
         <v>54</v>
       </c>
       <c r="H61" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="I61">
         <v>346.7999999999999</v>
@@ -2466,7 +2580,7 @@
         <v>44</v>
       </c>
       <c r="H62" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="I62">
         <v>492</v>
@@ -2495,7 +2609,7 @@
         <v>56</v>
       </c>
       <c r="H63" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="I63">
         <v>172.5</v>
@@ -2524,7 +2638,7 @@
         <v>57</v>
       </c>
       <c r="H64" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="I64">
         <v>73</v>
@@ -2553,7 +2667,7 @@
         <v>58</v>
       </c>
       <c r="H65" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="I65">
         <v>288.8</v>
@@ -2582,7 +2696,7 @@
         <v>58</v>
       </c>
       <c r="H66" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="I66">
         <v>216.4</v>
@@ -2611,7 +2725,7 @@
         <v>59</v>
       </c>
       <c r="H67" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="I67">
         <v>25</v>
@@ -2640,7 +2754,7 @@
         <v>60</v>
       </c>
       <c r="H68" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="I68">
         <v>140</v>
@@ -2669,7 +2783,7 @@
         <v>61</v>
       </c>
       <c r="H69" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="I69">
         <v>140</v>
@@ -2698,15 +2812,15 @@
         <v>62</v>
       </c>
       <c r="H70" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="I70">
         <v>76</v>
       </c>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="1" t="s">
-        <v>9</v>
+      <c r="A71" s="1">
+        <v>20069</v>
       </c>
       <c r="B71" t="s">
         <v>18</v>
@@ -2727,10 +2841,967 @@
         <v>60</v>
       </c>
       <c r="H71" t="s">
-        <v>99</v>
-      </c>
-      <c r="I71" t="s">
-        <v>102</v>
+        <v>116</v>
+      </c>
+      <c r="I71">
+        <v>394.4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="1">
+        <v>20070</v>
+      </c>
+      <c r="B72" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72" t="s">
+        <v>24</v>
+      </c>
+      <c r="E72">
+        <v>7650</v>
+      </c>
+      <c r="F72" t="s">
+        <v>33</v>
+      </c>
+      <c r="G72" t="s">
+        <v>63</v>
+      </c>
+      <c r="H72" t="s">
+        <v>119</v>
+      </c>
+      <c r="I72">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="1">
+        <v>20071</v>
+      </c>
+      <c r="B73" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" t="s">
+        <v>24</v>
+      </c>
+      <c r="E73">
+        <v>8600</v>
+      </c>
+      <c r="F73" t="s">
+        <v>33</v>
+      </c>
+      <c r="G73" t="s">
+        <v>64</v>
+      </c>
+      <c r="H73" t="s">
+        <v>120</v>
+      </c>
+      <c r="I73">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="1">
+        <v>20072</v>
+      </c>
+      <c r="B74" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" t="s">
+        <v>24</v>
+      </c>
+      <c r="E74">
+        <v>6795</v>
+      </c>
+      <c r="F74" t="s">
+        <v>33</v>
+      </c>
+      <c r="G74" t="s">
+        <v>65</v>
+      </c>
+      <c r="H74" t="s">
+        <v>121</v>
+      </c>
+      <c r="I74">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="1">
+        <v>20073</v>
+      </c>
+      <c r="B75" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75" t="s">
+        <v>21</v>
+      </c>
+      <c r="D75" t="s">
+        <v>24</v>
+      </c>
+      <c r="E75">
+        <v>6795</v>
+      </c>
+      <c r="F75" t="s">
+        <v>33</v>
+      </c>
+      <c r="G75" t="s">
+        <v>66</v>
+      </c>
+      <c r="H75" t="s">
+        <v>122</v>
+      </c>
+      <c r="I75">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="1">
+        <v>20074</v>
+      </c>
+      <c r="B76" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76" t="s">
+        <v>21</v>
+      </c>
+      <c r="D76" t="s">
+        <v>24</v>
+      </c>
+      <c r="E76">
+        <v>3360</v>
+      </c>
+      <c r="F76" t="s">
+        <v>33</v>
+      </c>
+      <c r="G76" t="s">
+        <v>67</v>
+      </c>
+      <c r="H76" t="s">
+        <v>123</v>
+      </c>
+      <c r="I76">
+        <v>431.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="1">
+        <v>20075</v>
+      </c>
+      <c r="B77" t="s">
+        <v>17</v>
+      </c>
+      <c r="C77" t="s">
+        <v>21</v>
+      </c>
+      <c r="D77" t="s">
+        <v>23</v>
+      </c>
+      <c r="E77">
+        <v>6720</v>
+      </c>
+      <c r="F77" t="s">
+        <v>33</v>
+      </c>
+      <c r="G77" t="s">
+        <v>67</v>
+      </c>
+      <c r="H77" t="s">
+        <v>123</v>
+      </c>
+      <c r="I77">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="1">
+        <v>20076</v>
+      </c>
+      <c r="B78" t="s">
+        <v>17</v>
+      </c>
+      <c r="C78" t="s">
+        <v>21</v>
+      </c>
+      <c r="D78" t="s">
+        <v>23</v>
+      </c>
+      <c r="E78">
+        <v>9240</v>
+      </c>
+      <c r="F78" t="s">
+        <v>33</v>
+      </c>
+      <c r="G78" t="s">
+        <v>54</v>
+      </c>
+      <c r="H78" t="s">
+        <v>124</v>
+      </c>
+      <c r="I78">
+        <v>1661.4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="1">
+        <v>20077</v>
+      </c>
+      <c r="B79" t="s">
+        <v>17</v>
+      </c>
+      <c r="C79" t="s">
+        <v>21</v>
+      </c>
+      <c r="D79" t="s">
+        <v>23</v>
+      </c>
+      <c r="E79">
+        <v>9240</v>
+      </c>
+      <c r="F79" t="s">
+        <v>33</v>
+      </c>
+      <c r="G79" t="s">
+        <v>57</v>
+      </c>
+      <c r="H79" t="s">
+        <v>125</v>
+      </c>
+      <c r="I79">
+        <v>1748.9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="1">
+        <v>20078</v>
+      </c>
+      <c r="B80" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" t="s">
+        <v>23</v>
+      </c>
+      <c r="D80" t="s">
+        <v>32</v>
+      </c>
+      <c r="E80">
+        <v>3820</v>
+      </c>
+      <c r="F80" t="s">
+        <v>34</v>
+      </c>
+      <c r="G80" t="s">
+        <v>68</v>
+      </c>
+      <c r="H80" t="s">
+        <v>126</v>
+      </c>
+      <c r="I80">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="1">
+        <v>20079</v>
+      </c>
+      <c r="B81" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" t="s">
+        <v>26</v>
+      </c>
+      <c r="D81" t="s">
+        <v>31</v>
+      </c>
+      <c r="E81">
+        <v>1636</v>
+      </c>
+      <c r="F81" t="s">
+        <v>34</v>
+      </c>
+      <c r="G81" t="s">
+        <v>69</v>
+      </c>
+      <c r="H81" t="s">
+        <v>127</v>
+      </c>
+      <c r="I81">
+        <v>397.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="1">
+        <v>20080</v>
+      </c>
+      <c r="B82" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" t="s">
+        <v>24</v>
+      </c>
+      <c r="D82" t="s">
+        <v>21</v>
+      </c>
+      <c r="E82">
+        <v>1415</v>
+      </c>
+      <c r="F82" t="s">
+        <v>34</v>
+      </c>
+      <c r="G82" t="s">
+        <v>68</v>
+      </c>
+      <c r="H82" t="s">
+        <v>128</v>
+      </c>
+      <c r="I82">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="1">
+        <v>20081</v>
+      </c>
+      <c r="B83" t="s">
+        <v>15</v>
+      </c>
+      <c r="C83" t="s">
+        <v>24</v>
+      </c>
+      <c r="D83" t="s">
+        <v>23</v>
+      </c>
+      <c r="E83">
+        <v>328</v>
+      </c>
+      <c r="F83" t="s">
+        <v>34</v>
+      </c>
+      <c r="G83" t="s">
+        <v>54</v>
+      </c>
+      <c r="H83" t="s">
+        <v>129</v>
+      </c>
+      <c r="I83">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="1">
+        <v>20082</v>
+      </c>
+      <c r="B84" t="s">
+        <v>20</v>
+      </c>
+      <c r="C84" t="s">
+        <v>27</v>
+      </c>
+      <c r="D84" t="s">
+        <v>21</v>
+      </c>
+      <c r="E84">
+        <v>500</v>
+      </c>
+      <c r="F84" t="s">
+        <v>34</v>
+      </c>
+      <c r="G84" t="s">
+        <v>70</v>
+      </c>
+      <c r="H84" t="s">
+        <v>130</v>
+      </c>
+      <c r="I84">
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="1">
+        <v>20083</v>
+      </c>
+      <c r="B85" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" t="s">
+        <v>24</v>
+      </c>
+      <c r="D85" t="s">
+        <v>31</v>
+      </c>
+      <c r="E85">
+        <v>1415</v>
+      </c>
+      <c r="F85" t="s">
+        <v>34</v>
+      </c>
+      <c r="G85" t="s">
+        <v>68</v>
+      </c>
+      <c r="H85" t="s">
+        <v>128</v>
+      </c>
+      <c r="I85">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="1">
+        <v>20084</v>
+      </c>
+      <c r="B86" t="s">
+        <v>16</v>
+      </c>
+      <c r="C86" t="s">
+        <v>23</v>
+      </c>
+      <c r="D86" t="s">
+        <v>21</v>
+      </c>
+      <c r="E86">
+        <v>1460</v>
+      </c>
+      <c r="F86" t="s">
+        <v>34</v>
+      </c>
+      <c r="G86" t="s">
+        <v>68</v>
+      </c>
+      <c r="H86" t="s">
+        <v>128</v>
+      </c>
+      <c r="I86">
+        <v>212.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="1">
+        <v>20085</v>
+      </c>
+      <c r="B87" t="s">
+        <v>16</v>
+      </c>
+      <c r="C87" t="s">
+        <v>23</v>
+      </c>
+      <c r="D87" t="s">
+        <v>32</v>
+      </c>
+      <c r="E87">
+        <v>700</v>
+      </c>
+      <c r="F87" t="s">
+        <v>34</v>
+      </c>
+      <c r="G87" t="s">
+        <v>68</v>
+      </c>
+      <c r="H87" t="s">
+        <v>126</v>
+      </c>
+      <c r="I87">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="1">
+        <v>20086</v>
+      </c>
+      <c r="B88" t="s">
+        <v>16</v>
+      </c>
+      <c r="C88" t="s">
+        <v>23</v>
+      </c>
+      <c r="D88" t="s">
+        <v>32</v>
+      </c>
+      <c r="E88">
+        <v>1135</v>
+      </c>
+      <c r="F88" t="s">
+        <v>34</v>
+      </c>
+      <c r="G88" t="s">
+        <v>68</v>
+      </c>
+      <c r="H88" t="s">
+        <v>126</v>
+      </c>
+      <c r="I88">
+        <v>190.8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="1">
+        <v>20087</v>
+      </c>
+      <c r="B89" t="s">
+        <v>20</v>
+      </c>
+      <c r="C89" t="s">
+        <v>27</v>
+      </c>
+      <c r="D89" t="s">
+        <v>21</v>
+      </c>
+      <c r="E89">
+        <v>1576</v>
+      </c>
+      <c r="F89" t="s">
+        <v>34</v>
+      </c>
+      <c r="G89" t="s">
+        <v>68</v>
+      </c>
+      <c r="H89" t="s">
+        <v>128</v>
+      </c>
+      <c r="I89">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="1">
+        <v>20088</v>
+      </c>
+      <c r="B90" t="s">
+        <v>20</v>
+      </c>
+      <c r="C90" t="s">
+        <v>27</v>
+      </c>
+      <c r="D90" t="s">
+        <v>21</v>
+      </c>
+      <c r="E90">
+        <v>5335</v>
+      </c>
+      <c r="F90" t="s">
+        <v>34</v>
+      </c>
+      <c r="G90" t="s">
+        <v>71</v>
+      </c>
+      <c r="H90" t="s">
+        <v>131</v>
+      </c>
+      <c r="I90">
+        <v>784.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="1">
+        <v>20089</v>
+      </c>
+      <c r="B91" t="s">
+        <v>20</v>
+      </c>
+      <c r="C91" t="s">
+        <v>27</v>
+      </c>
+      <c r="D91" t="s">
+        <v>21</v>
+      </c>
+      <c r="E91">
+        <v>1606</v>
+      </c>
+      <c r="F91" t="s">
+        <v>34</v>
+      </c>
+      <c r="G91" t="s">
+        <v>72</v>
+      </c>
+      <c r="H91" t="s">
+        <v>132</v>
+      </c>
+      <c r="I91">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="1">
+        <v>20090</v>
+      </c>
+      <c r="B92" t="s">
+        <v>20</v>
+      </c>
+      <c r="C92" t="s">
+        <v>27</v>
+      </c>
+      <c r="D92" t="s">
+        <v>21</v>
+      </c>
+      <c r="E92">
+        <v>5335</v>
+      </c>
+      <c r="F92" t="s">
+        <v>34</v>
+      </c>
+      <c r="G92" t="s">
+        <v>62</v>
+      </c>
+      <c r="H92" t="s">
+        <v>133</v>
+      </c>
+      <c r="I92">
+        <v>784.5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="1">
+        <v>20091</v>
+      </c>
+      <c r="B93" t="s">
+        <v>15</v>
+      </c>
+      <c r="C93" t="s">
+        <v>24</v>
+      </c>
+      <c r="D93" t="s">
+        <v>32</v>
+      </c>
+      <c r="E93">
+        <v>1023</v>
+      </c>
+      <c r="F93" t="s">
+        <v>34</v>
+      </c>
+      <c r="G93" t="s">
+        <v>68</v>
+      </c>
+      <c r="H93" t="s">
+        <v>126</v>
+      </c>
+      <c r="I93">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="1">
+        <v>20092</v>
+      </c>
+      <c r="B94" t="s">
+        <v>18</v>
+      </c>
+      <c r="C94" t="s">
+        <v>23</v>
+      </c>
+      <c r="D94" t="s">
+        <v>27</v>
+      </c>
+      <c r="E94">
+        <v>1600</v>
+      </c>
+      <c r="F94" t="s">
+        <v>33</v>
+      </c>
+      <c r="G94" t="s">
+        <v>73</v>
+      </c>
+      <c r="H94" t="s">
+        <v>134</v>
+      </c>
+      <c r="I94">
+        <v>153.4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="1">
+        <v>20093</v>
+      </c>
+      <c r="B95" t="s">
+        <v>18</v>
+      </c>
+      <c r="C95" t="s">
+        <v>23</v>
+      </c>
+      <c r="D95" t="s">
+        <v>27</v>
+      </c>
+      <c r="E95">
+        <v>4000</v>
+      </c>
+      <c r="F95" t="s">
+        <v>33</v>
+      </c>
+      <c r="G95" t="s">
+        <v>74</v>
+      </c>
+      <c r="H95" t="s">
+        <v>135</v>
+      </c>
+      <c r="I95">
+        <v>282.4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="1">
+        <v>20094</v>
+      </c>
+      <c r="B96" t="s">
+        <v>18</v>
+      </c>
+      <c r="C96" t="s">
+        <v>23</v>
+      </c>
+      <c r="D96" t="s">
+        <v>27</v>
+      </c>
+      <c r="E96">
+        <v>10350</v>
+      </c>
+      <c r="F96" t="s">
+        <v>33</v>
+      </c>
+      <c r="G96" t="s">
+        <v>75</v>
+      </c>
+      <c r="H96" t="s">
+        <v>125</v>
+      </c>
+      <c r="I96">
+        <v>904.8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="1">
+        <v>20095</v>
+      </c>
+      <c r="B97" t="s">
+        <v>18</v>
+      </c>
+      <c r="C97" t="s">
+        <v>23</v>
+      </c>
+      <c r="D97" t="s">
+        <v>27</v>
+      </c>
+      <c r="E97">
+        <v>600</v>
+      </c>
+      <c r="F97" t="s">
+        <v>33</v>
+      </c>
+      <c r="G97" t="s">
+        <v>76</v>
+      </c>
+      <c r="H97" t="s">
+        <v>136</v>
+      </c>
+      <c r="I97">
+        <v>35.4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="1">
+        <v>20096</v>
+      </c>
+      <c r="B98" t="s">
+        <v>18</v>
+      </c>
+      <c r="C98" t="s">
+        <v>23</v>
+      </c>
+      <c r="D98" t="s">
+        <v>27</v>
+      </c>
+      <c r="E98">
+        <v>400</v>
+      </c>
+      <c r="F98" t="s">
+        <v>33</v>
+      </c>
+      <c r="G98" t="s">
+        <v>59</v>
+      </c>
+      <c r="H98" t="s">
+        <v>115</v>
+      </c>
+      <c r="I98">
+        <v>35.40000000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="1">
+        <v>20097</v>
+      </c>
+      <c r="B99" t="s">
+        <v>18</v>
+      </c>
+      <c r="C99" t="s">
+        <v>23</v>
+      </c>
+      <c r="D99" t="s">
+        <v>27</v>
+      </c>
+      <c r="E99">
+        <v>800</v>
+      </c>
+      <c r="F99" t="s">
+        <v>33</v>
+      </c>
+      <c r="G99" t="s">
+        <v>60</v>
+      </c>
+      <c r="H99" t="s">
+        <v>116</v>
+      </c>
+      <c r="I99">
+        <v>70.80000000000003</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="1">
+        <v>20098</v>
+      </c>
+      <c r="B100" t="s">
+        <v>19</v>
+      </c>
+      <c r="C100" t="s">
+        <v>27</v>
+      </c>
+      <c r="D100" t="s">
+        <v>31</v>
+      </c>
+      <c r="E100">
+        <v>495</v>
+      </c>
+      <c r="F100" t="s">
+        <v>34</v>
+      </c>
+      <c r="G100" t="s">
+        <v>77</v>
+      </c>
+      <c r="H100" t="s">
+        <v>137</v>
+      </c>
+      <c r="I100">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="1">
+        <v>20099</v>
+      </c>
+      <c r="B101" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101" t="s">
+        <v>24</v>
+      </c>
+      <c r="D101" t="s">
+        <v>32</v>
+      </c>
+      <c r="E101">
+        <v>1022</v>
+      </c>
+      <c r="F101" t="s">
+        <v>34</v>
+      </c>
+      <c r="G101" t="s">
+        <v>68</v>
+      </c>
+      <c r="H101" t="s">
+        <v>126</v>
+      </c>
+      <c r="I101">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="1">
+        <v>20100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>20</v>
+      </c>
+      <c r="C102" t="s">
+        <v>27</v>
+      </c>
+      <c r="D102" t="s">
+        <v>21</v>
+      </c>
+      <c r="E102">
+        <v>994</v>
+      </c>
+      <c r="F102" t="s">
+        <v>34</v>
+      </c>
+      <c r="G102" t="s">
+        <v>78</v>
+      </c>
+      <c r="H102" t="s">
+        <v>138</v>
+      </c>
+      <c r="I102">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="1">
+        <v>20101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>17</v>
+      </c>
+      <c r="C103" t="s">
+        <v>21</v>
+      </c>
+      <c r="D103" t="s">
+        <v>23</v>
+      </c>
+      <c r="E103">
+        <v>2800</v>
+      </c>
+      <c r="F103" t="s">
+        <v>33</v>
+      </c>
+      <c r="G103" t="s">
+        <v>79</v>
+      </c>
+      <c r="H103" t="s">
+        <v>135</v>
+      </c>
+      <c r="I103">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B104" t="s">
+        <v>17</v>
+      </c>
+      <c r="C104" t="s">
+        <v>21</v>
+      </c>
+      <c r="D104" t="s">
+        <v>23</v>
+      </c>
+      <c r="E104">
+        <v>2800</v>
+      </c>
+      <c r="F104" t="s">
+        <v>33</v>
+      </c>
+      <c r="G104" t="s">
+        <v>68</v>
+      </c>
+      <c r="H104" t="s">
+        <v>139</v>
+      </c>
+      <c r="I104" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
